--- a/analyses/overlap-drawvenn/sussink-propeps-overlap.xlsx
+++ b/analyses/overlap-drawvenn/sussink-propeps-overlap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/overlap-drawvenn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D52C0865-D469-1C43-A1EB-928F5B62744B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5D86816-A5FF-E44F-BABC-1CA526302F1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="5020" windowWidth="26840" windowHeight="15940"/>
   </bookViews>

--- a/analyses/overlap-drawvenn/sussink-propeps-overlap.xlsx
+++ b/analyses/overlap-drawvenn/sussink-propeps-overlap.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/overlap-drawvenn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5D86816-A5FF-E44F-BABC-1CA526302F1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5FACB5-423C-D344-9E08-3639EC226423}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="5020" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="2620" yWindow="4560" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sussink-propeps-overlap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -10144,7 +10144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -10978,11 +10978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
